--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999/metrics/Trial_163__Reeval_Taguchi_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999/metrics/Trial_163__Reeval_Taguchi_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -5368,7 +5368,7 @@
                   <c:v>359.8053894042969</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>355.56201171875</c:v>
+                  <c:v>355.5619812011719</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>352.0611267089844</c:v>
@@ -5395,7 +5395,7 @@
                   <c:v>361.0656127929688</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>345.65771484375</c:v>
+                  <c:v>345.6577453613281</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>354.8150024414062</c:v>
@@ -5449,10 +5449,10 @@
                   <c:v>360.9148864746094</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>350.2428894042969</c:v>
+                  <c:v>350.242919921875</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>354.7391052246094</c:v>
+                  <c:v>354.7390747070312</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>328.6051940917969</c:v>
@@ -5473,10 +5473,10 @@
                   <c:v>359.774169921875</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>358.3362426757812</c:v>
+                  <c:v>358.3362731933594</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>336.1864318847656</c:v>
+                  <c:v>336.1864624023438</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>355.9492797851562</c:v>
@@ -5518,7 +5518,7 @@
                   <c:v>351.9119567871094</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>354.6603393554688</c:v>
+                  <c:v>354.6603088378906</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>357.9084167480469</c:v>
@@ -5527,7 +5527,7 @@
                   <c:v>349.6980895996094</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>353.7131042480469</c:v>
+                  <c:v>353.7130737304688</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>333.7085571289062</c:v>
@@ -5548,7 +5548,7 @@
                   <c:v>343.5661010742188</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>353.5038757324219</c:v>
+                  <c:v>353.5038452148438</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>346.8388061523438</c:v>
@@ -5587,7 +5587,7 @@
                   <c:v>362.9521179199219</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>341.3092041015625</c:v>
+                  <c:v>341.3092346191406</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>360.6232299804688</c:v>
@@ -5645,7 +5645,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5660,7 +5660,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5689,7 +5689,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5704,7 +5704,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5733,7 +5733,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5748,7 +5748,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6260,13 +6260,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H712"/>
+  <dimension ref="A1:S712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6291,8 +6291,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>355.54</v>
       </c>
@@ -6317,8 +6323,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>355.305</v>
       </c>
@@ -6338,13 +6350,19 @@
         <v>360.0580444335938</v>
       </c>
       <c r="G3">
+        <v>372</v>
+      </c>
+      <c r="H3">
+        <v>372</v>
+      </c>
+      <c r="R3">
         <v>368</v>
       </c>
-      <c r="H3">
+      <c r="S3">
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>361.741</v>
       </c>
@@ -6364,13 +6382,19 @@
         <v>355.5986633300781</v>
       </c>
       <c r="G4">
+        <v>372</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>368</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>338.792</v>
       </c>
@@ -6390,13 +6414,19 @@
         <v>358.6957702636719</v>
       </c>
       <c r="G5">
+        <v>372</v>
+      </c>
+      <c r="H5">
+        <v>372</v>
+      </c>
+      <c r="R5">
         <v>368</v>
       </c>
-      <c r="H5">
+      <c r="S5">
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>353.734</v>
       </c>
@@ -6416,13 +6446,19 @@
         <v>359.8053894042969</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>372</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>368</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>363.503</v>
       </c>
@@ -6439,16 +6475,22 @@
         <v>357.155</v>
       </c>
       <c r="F7">
-        <v>355.56201171875</v>
+        <v>355.5619812011719</v>
       </c>
       <c r="G7">
+        <v>372</v>
+      </c>
+      <c r="H7">
+        <v>372</v>
+      </c>
+      <c r="R7">
         <v>368</v>
       </c>
-      <c r="H7">
+      <c r="S7">
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>360.226</v>
       </c>
@@ -6468,7 +6510,7 @@
         <v>352.0611267089844</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>359.146</v>
       </c>
@@ -6488,7 +6530,7 @@
         <v>350.69140625</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>358.977</v>
       </c>
@@ -6508,7 +6550,7 @@
         <v>333.2618408203125</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>330.382</v>
       </c>
@@ -6528,7 +6570,7 @@
         <v>357.1963500976562</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>356.115</v>
       </c>
@@ -6548,7 +6590,7 @@
         <v>358.4753723144531</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>358.917</v>
       </c>
@@ -6568,7 +6610,7 @@
         <v>355.1559448242188</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>340.516</v>
       </c>
@@ -6588,7 +6630,7 @@
         <v>358.660888671875</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>355.69</v>
       </c>
@@ -6608,7 +6650,7 @@
         <v>361.0656127929688</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>355.401</v>
       </c>
@@ -6625,7 +6667,7 @@
         <v>338.203</v>
       </c>
       <c r="F16">
-        <v>345.65771484375</v>
+        <v>345.6577453613281</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6985,7 +7027,7 @@
         <v>359.974</v>
       </c>
       <c r="F34">
-        <v>350.2428894042969</v>
+        <v>350.242919921875</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7005,7 +7047,7 @@
         <v>356.245</v>
       </c>
       <c r="F35">
-        <v>354.7391052246094</v>
+        <v>354.7390747070312</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7145,7 +7187,7 @@
         <v>361.934</v>
       </c>
       <c r="F42">
-        <v>358.3362426757812</v>
+        <v>358.3362731933594</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7165,7 +7207,7 @@
         <v>337.824</v>
       </c>
       <c r="F43">
-        <v>336.1864318847656</v>
+        <v>336.1864624023438</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7445,7 +7487,7 @@
         <v>355.419</v>
       </c>
       <c r="F57">
-        <v>354.6603393554688</v>
+        <v>354.6603088378906</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7505,7 +7547,7 @@
         <v>357.058</v>
       </c>
       <c r="F60">
-        <v>353.7131042480469</v>
+        <v>353.7130737304688</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7645,7 +7687,7 @@
         <v>357.824</v>
       </c>
       <c r="F67">
-        <v>353.5038757324219</v>
+        <v>353.5038452148438</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7905,7 +7947,7 @@
         <v>340.362</v>
       </c>
       <c r="F80">
-        <v>341.3092041015625</v>
+        <v>341.3092346191406</v>
       </c>
     </row>
     <row r="81" spans="1:6">
